--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.77970022852943</v>
+        <v>8.398553333333334</v>
       </c>
       <c r="H2">
-        <v>7.77970022852943</v>
+        <v>25.19566</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.85247143145312</v>
+        <v>9.210619666666666</v>
       </c>
       <c r="N2">
-        <v>8.85247143145312</v>
+        <v>27.631859</v>
       </c>
       <c r="O2">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="P2">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="Q2">
-        <v>68.86957401832609</v>
+        <v>77.35588050354889</v>
       </c>
       <c r="R2">
-        <v>68.86957401832609</v>
+        <v>696.20292453194</v>
       </c>
       <c r="S2">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="T2">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.77970022852943</v>
+        <v>8.398553333333334</v>
       </c>
       <c r="H3">
-        <v>7.77970022852943</v>
+        <v>25.19566</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.8693040918703</v>
+        <v>43.97212233333332</v>
       </c>
       <c r="N3">
-        <v>43.8693040918703</v>
+        <v>131.916367</v>
       </c>
       <c r="O3">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794987</v>
       </c>
       <c r="P3">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794989</v>
       </c>
       <c r="Q3">
-        <v>341.2900350689504</v>
+        <v>369.3022145963577</v>
       </c>
       <c r="R3">
-        <v>341.2900350689504</v>
+        <v>3323.719931367219</v>
       </c>
       <c r="S3">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794987</v>
       </c>
       <c r="T3">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.77970022852943</v>
+        <v>8.398553333333334</v>
       </c>
       <c r="H4">
-        <v>7.77970022852943</v>
+        <v>25.19566</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.7078800325251</v>
+        <v>15.740255</v>
       </c>
       <c r="N4">
-        <v>15.7078800325251</v>
+        <v>47.220765</v>
       </c>
       <c r="O4">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="P4">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="Q4">
-        <v>122.2025978787484</v>
+        <v>132.1953710977667</v>
       </c>
       <c r="R4">
-        <v>122.2025978787484</v>
+        <v>1189.7583398799</v>
       </c>
       <c r="S4">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="T4">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
     </row>
   </sheetData>
